--- a/MODELES/31224_etab.xlsx
+++ b/MODELES/31224_etab.xlsx
@@ -5,11 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\pierr\ALIDade\MODELES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\MODELES202304031600\MODELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC4F70-EBB9-47D3-89E2-7E1C7D0E0ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="SMlnrNa46wcCpNHgIcUZa22oKr5jOqmQ6du3JA56echfJ7yv25U5CFlcHj0B6cZdBdq4UEU4hyVreZD32NDi1A==" workbookSaltValue="NUBYaFg0mcjoQwv2CqIFNg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0F9CD-5175-4010-A2F9-9DC43174196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +27,59 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Bertrand-Pascal Chapel</author>
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{3EE29C18-5040-4452-8845-D89F82C7F385}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bertrand-Pascal Chapel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+session certificative </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{37281CF0-94CD-401D-A1E5-B25C21828D37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bertrand-Pascal Chapel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nom établissement, adresse, ville, UAI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,6 +91,78 @@
           </rPr>
           <t>Auteur:
 Report automatique des notes de l'onglet RECAPNOTES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{6E3394E1-B7A7-4BDC-BF2D-B7E34BBF198D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bertrand-Pascal Chapel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indiquer le nombre de candidats inscrits </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{4D8079FE-D517-4E18-A336-502D57002FE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bertrand-Pascal Chapel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indiquer le nom des examinateurs </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0" xr:uid="{483D480F-D0C0-4482-915B-4007C6BE65A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bertrand-Pascal Chapel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indiquer nom du DDFPT et adresse mail / télephone</t>
         </r>
       </text>
     </comment>
@@ -91,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>DOSSIER ETABLISSEMENT</t>
   </si>
@@ -103,9 +223,6 @@
 </t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>Sous-Épreuve</t>
   </si>
   <si>
@@ -145,9 +262,6 @@
     <t xml:space="preserve">Noms des professeurs chargés de l'évaluation : </t>
   </si>
   <si>
-    <t>DDF:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faire parvenir ce dossier numérique pour le 30 MAI 2023 via Nuage </t>
   </si>
   <si>
@@ -254,13 +368,25 @@
   </si>
   <si>
     <t>nbre de semaines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP1 </t>
+  </si>
+  <si>
+    <t>DDFPT:</t>
+  </si>
+  <si>
+    <t>ACADEMIE DE VERSAILLES</t>
+  </si>
+  <si>
+    <t>SESSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,19 +429,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -459,8 +572,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,18 +681,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1145,7 +1339,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1158,33 +1354,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1192,16 +1377,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1209,49 +1394,49 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1267,318 +1452,576 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1591,6 +2034,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1629,13 +2079,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1647,59 +2090,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1230312</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="766763"/>
-          <a:ext cx="1873250" cy="1169988"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,9 +2355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:K48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1981,72 +2376,102 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:10" ht="31.05" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="J7" s="63"/>
+    <row r="5" spans="1:10" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
+    </row>
+    <row r="6" spans="1:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="1:10" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="62"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" ht="50.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
+    </row>
+    <row r="9" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="105" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+    </row>
+    <row r="11" spans="1:10" ht="33.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="103">
+        <v>2023</v>
+      </c>
+      <c r="G11" s="104"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+    </row>
+    <row r="12" spans="1:10" ht="6.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="105"/>
       <c r="B12" s="106"/>
       <c r="C12" s="106"/>
       <c r="D12" s="106"/>
@@ -2057,264 +2482,550 @@
       <c r="I12" s="106"/>
       <c r="J12" s="107"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+    <row r="13" spans="1:10" ht="39.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.05" x14ac:dyDescent="0.45">
+      <c r="A15" s="40"/>
+      <c r="B15" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+    </row>
+    <row r="17" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.100000000000001" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
+    </row>
+    <row r="19" spans="1:10" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.3" x14ac:dyDescent="0.4">
+      <c r="A20" s="40"/>
+      <c r="B20" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="D20" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.3" x14ac:dyDescent="0.4">
+      <c r="A22" s="40"/>
+      <c r="B22" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="66"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="66" t="s">
+      <c r="D22" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.3" x14ac:dyDescent="0.4">
+      <c r="A24" s="40"/>
+      <c r="B24" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="66"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="66"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="66" t="s">
+      <c r="D24" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="98"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+    </row>
+    <row r="29" spans="1:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="27" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="69" t="s">
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="126"/>
+    </row>
+    <row r="30" spans="1:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="1:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="1:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="98"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-    </row>
-    <row r="29" spans="2:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:10" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24" t="e">
+      <c r="D32" s="63"/>
+      <c r="E32" s="69" t="e">
         <f>RECAPNOTES!D50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="24" t="e">
+      <c r="F32" s="72" t="e">
         <f>RECAPNOTES!E50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="24" t="e">
+      <c r="G32" s="75" t="e">
         <f>RECAPNOTES!F50</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="25" t="s">
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="100"/>
+    </row>
+    <row r="33" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="98"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="69">
+        <f>RECAPNOTES!D51</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="72">
+        <f>RECAPNOTES!E51</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="75">
+        <f>RECAPNOTES!F51</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
+    </row>
+    <row r="34" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="98"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="24">
-        <f>RECAPNOTES!D51</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="24">
-        <f>RECAPNOTES!E51</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <f>RECAPNOTES!F51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="27" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="70">
+        <f>RECAPNOTES!D52</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="73">
+        <f>RECAPNOTES!E52</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="76">
+        <f>RECAPNOTES!F52</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="100"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="100"/>
+    </row>
+    <row r="36" spans="1:10" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="40"/>
+      <c r="B36" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24">
-        <f>RECAPNOTES!D52</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="24">
-        <f>RECAPNOTES!E52</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="24">
-        <f>RECAPNOTES!F52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="70" t="s">
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="1:10" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
+      <c r="B39" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="102"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-    </row>
-    <row r="37" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="102"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-    </row>
-    <row r="39" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="71"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="66"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="J44" s="78"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="65" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="142"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
+    </row>
+    <row r="42" spans="1:10" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
+      <c r="B42" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="154"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="98"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="J44" s="47"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="1:10" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="J46" s="60"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="J47" s="60"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="61"/>
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.3" x14ac:dyDescent="0.4">
+      <c r="A49" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="J45" s="78"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="77"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="77"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="113"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="108"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110"/>
     </row>
   </sheetData>
   <sheetProtection password="F28A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="9">
+  <mergeCells count="37">
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A48:K48"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:J28"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="H31:J34"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,434 +3039,434 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="173"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="123" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="166">
+        <f>'Page de garde'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="118">
-        <f>'Page de garde'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="E5" s="163"/>
+      <c r="F5" s="164"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="113" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="175">
+        <f>'Page de garde'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="159">
+        <f>'Page de garde'!F11</f>
+        <v>2023</v>
+      </c>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="113">
-        <f>'Page de garde'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="121" t="s">
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="184"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="187"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="110" t="str">
-        <f>'Page de garde'!A12</f>
-        <v>SESSION 2023</v>
-      </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="B11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="81" t="s">
+      <c r="C11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="D11" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>35</v>
+      <c r="E11" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="82"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="15"/>
@@ -2764,17 +3475,17 @@
       <c r="A50" s="16"/>
       <c r="B50" s="3"/>
       <c r="C50" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="29" t="e">
+        <v>11</v>
+      </c>
+      <c r="D50" s="25" t="e">
         <f>AVERAGE(D12:D49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="30" t="e">
+      <c r="E50" s="26" t="e">
         <f>AVERAGE(E12:E49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="31" t="e">
+      <c r="F50" s="27" t="e">
         <f>AVERAGE(F12:F49)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2782,18 +3493,18 @@
     <row r="51" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="32">
+      <c r="C51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="28">
         <f>MIN(D12:D49)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="29">
         <f>MIN(E12:E49)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="30">
         <f>MIN(F12:F49)</f>
         <v>0</v>
       </c>
@@ -2801,18 +3512,18 @@
     <row r="52" spans="1:6" ht="15.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="35">
+      <c r="C52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="31">
         <f>MAX(D12:D49)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="32">
         <f>MAX(E12:E49)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="33">
         <f>MAX(F12:F49)</f>
         <v>0</v>
       </c>
@@ -2820,30 +3531,34 @@
   </sheetData>
   <sheetProtection password="F28A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <autoFilter ref="A11:C11" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A8:C10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2861,199 +3576,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="A1" s="200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202"/>
     </row>
     <row r="2" spans="1:13" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="133"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="127">
-        <f>'Page de garde'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="205"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="195">
+        <f>'Page de garde'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="142" t="str">
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="190" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="191"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="218" t="str">
         <f>RECAPNOTES!D5</f>
         <v>CAP EPC</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="221" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="222"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="215">
+        <f>'Page de garde'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="191"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="209">
+        <f>'Page de garde'!F11</f>
+        <v>2023</v>
+      </c>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" ht="5.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="142">
-        <f>'Page de garde'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="B8" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="137" t="str">
-        <f>RECAPNOTES!D7</f>
-        <v>SESSION 2023</v>
-      </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="C8" s="198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="E8" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="141" t="s">
+      <c r="F8" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="G8" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="H8" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="I8" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="J8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="K8" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="L8" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="136" t="s">
+      <c r="M8" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="134" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="75.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="194"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="140" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="126"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="107"/>
+      <c r="F9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="194"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="213"/>
     </row>
     <row r="10" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -3075,11 +3790,11 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="91">
+      <c r="K10" s="45">
         <f t="shared" ref="K10:K41" si="0">SUM(E10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="46">
         <f t="shared" ref="L10:L41" si="1">SUM(K10*5)</f>
         <v>0</v>
       </c>
@@ -3105,11 +3820,11 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="91">
+      <c r="K11" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3135,11 +3850,11 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="91">
+      <c r="K12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3165,11 +3880,11 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="91">
+      <c r="K13" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L13" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3195,11 +3910,11 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="91">
+      <c r="K14" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3225,11 +3940,11 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="91">
+      <c r="K15" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3255,11 +3970,11 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="91">
+      <c r="K16" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3285,11 +4000,11 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="91">
+      <c r="K17" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3315,11 +4030,11 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="91">
+      <c r="K18" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3345,11 +4060,11 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="91">
+      <c r="K19" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="92">
+      <c r="L19" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3375,11 +4090,11 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="91">
+      <c r="K20" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="92">
+      <c r="L20" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3405,11 +4120,11 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="91">
+      <c r="K21" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3435,11 +4150,11 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="91">
+      <c r="K22" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="92">
+      <c r="L22" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3465,11 +4180,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="91">
+      <c r="K23" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="92">
+      <c r="L23" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3495,11 +4210,11 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="91">
+      <c r="K24" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L24" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3525,11 +4240,11 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="91">
+      <c r="K25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3555,11 +4270,11 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="91">
+      <c r="K26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3585,11 +4300,11 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="91">
+      <c r="K27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="92">
+      <c r="L27" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3615,11 +4330,11 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="91">
+      <c r="K28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="92">
+      <c r="L28" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3645,11 +4360,11 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="91">
+      <c r="K29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="92">
+      <c r="L29" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3675,11 +4390,11 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="91">
+      <c r="K30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="92">
+      <c r="L30" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3705,11 +4420,11 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="91">
+      <c r="K31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="92">
+      <c r="L31" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3735,11 +4450,11 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="91">
+      <c r="K32" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="92">
+      <c r="L32" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3765,11 +4480,11 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="91">
+      <c r="K33" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="92">
+      <c r="L33" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3795,11 +4510,11 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
-      <c r="K34" s="91">
+      <c r="K34" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="92">
+      <c r="L34" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3825,11 +4540,11 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="91">
+      <c r="K35" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="92">
+      <c r="L35" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3855,11 +4570,11 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="91">
+      <c r="K36" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="92">
+      <c r="L36" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3885,11 +4600,11 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="91">
+      <c r="K37" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="92">
+      <c r="L37" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3915,11 +4630,11 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="91">
+      <c r="K38" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="92">
+      <c r="L38" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3945,11 +4660,11 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="91">
+      <c r="K39" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="92">
+      <c r="L39" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3975,11 +4690,11 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="91">
+      <c r="K40" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="92">
+      <c r="L40" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4005,11 +4720,11 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
-      <c r="K41" s="91">
+      <c r="K41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="92">
+      <c r="L41" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4031,10 +4746,11 @@
       <c r="M42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <sheetProtection password="F28A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="L8:L9"/>
@@ -4045,35 +4761,38 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+      <formula>"OUI"</formula>
+      <formula>"OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>si+$D$10="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>"OUI"</formula>
+    </cfRule>
     <cfRule type="expression" priority="12">
       <formula>"OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D41">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>si+$D$10="OUI"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D41">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>"OUI"</formula>
+    </cfRule>
     <cfRule type="expression" priority="7">
       <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>"OUI"</formula>
-      <formula>"OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>si+$D$10="OUI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K41">
@@ -4083,6 +4802,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>